--- a/02/SampleData.xlsx
+++ b/02/SampleData.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noguchiatsushi/Documents/GitHub/KoukogakuKenkyu9/02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB8EF47-721C-DE41-9B79-EF8B4FFFFAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A14BAB6-5337-A448-B10A-BDBE68094BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1260" windowWidth="17700" windowHeight="16700" firstSheet="1" activeTab="3" xr2:uid="{34562375-A586-564B-B65E-2A1F00DA1F95}"/>
+    <workbookView xWindow="940" yWindow="1260" windowWidth="17700" windowHeight="16700" firstSheet="1" activeTab="2" xr2:uid="{34562375-A586-564B-B65E-2A1F00DA1F95}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧表サンプル" sheetId="2" r:id="rId1"/>
     <sheet name="整然データサンプル" sheetId="1" r:id="rId2"/>
-    <sheet name="整然データ並べ替えサンプル" sheetId="4" r:id="rId3"/>
-    <sheet name="集計データサンプル" sheetId="5" r:id="rId4"/>
+    <sheet name="整然データ住所サンプル" sheetId="6" r:id="rId3"/>
+    <sheet name="整然データ並べ替えサンプル" sheetId="4" r:id="rId4"/>
+    <sheet name="集計データサンプル" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="55">
   <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
@@ -579,14 +580,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -962,7 +963,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -988,7 +989,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
       <c r="B3">
         <v>76</v>
       </c>
@@ -1012,7 +1013,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
       <c r="B4">
         <v>80</v>
       </c>
@@ -1036,7 +1037,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
       <c r="B5">
         <v>98</v>
       </c>
@@ -1060,7 +1061,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
       <c r="B6">
         <v>158</v>
       </c>
@@ -1084,7 +1085,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7">
@@ -1110,7 +1111,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
       <c r="B8">
         <v>12</v>
       </c>
@@ -1134,7 +1135,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B9">
@@ -1160,7 +1161,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
       <c r="B10">
         <v>114</v>
       </c>
@@ -1475,6 +1476,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308030B-E04F-4040-BA65-84612677AE63}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>158</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A113967-22D8-FD4E-BE7C-C9289821DE9F}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1756,11 +1977,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110E900-1818-AB47-8975-4E45FF6279AE}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1965,38 +2186,38 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>C2/B2</f>
         <v>0.19078947368421054</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>D2/B2</f>
         <v>0.43421052631578949</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>E2/B2</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f>F2/B2</f>
         <v>0.15131578947368421</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f>G2/B2</f>
         <v>0.11842105263157894</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f>H2/B2</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f>I2/B2</f>
         <v>8.5526315789473686E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f>J2/B2</f>
         <v>0.88815789473684215</v>
       </c>
@@ -2005,38 +2226,38 @@
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>C3/B3</f>
         <v>6.25E-2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" ref="D9:D11" si="0">D3/B3</f>
         <v>0.75</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" ref="E9:E11" si="1">E3/B3</f>
         <v>0.25</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f>F3/B3</f>
         <v>0.3125</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <f t="shared" ref="G9:G11" si="2">G3/B3</f>
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f>H3/B3</f>
         <v>0.25</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f>I3/B3</f>
         <v>0.3125</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f>J3/B3</f>
         <v>0.75</v>
       </c>
@@ -2045,38 +2266,38 @@
       <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>C4/B4</f>
         <v>0.14492753623188406</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>0.52173913043478259</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>0.24637681159420291</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f>F4/B4</f>
         <v>0.18115942028985507</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <f t="shared" si="2"/>
         <v>0.13043478260869565</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f>H4/B4</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f>I4/B4</f>
         <v>0.12318840579710146</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f>J4/B4</f>
         <v>0.89130434782608692</v>
       </c>
@@ -2085,38 +2306,38 @@
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>C5/B5</f>
         <v>0.16339869281045752</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>0.49019607843137253</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>0.20261437908496732</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f>F5/B5</f>
         <v>0.17320261437908496</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <f t="shared" si="2"/>
         <v>0.12091503267973856</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f>H5/B5</f>
         <v>0.12418300653594772</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f>I5/B5</f>
         <v>0.11437908496732026</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f>J5/B5</f>
         <v>0.88235294117647056</v>
       </c>
